--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556082_ppfibp2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556082_ppfibp2_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.28082299828757307, 0.3672533976583211]</t>
+          <t>[0.279032648268292, 0.3690437476776022]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.078160114635466e-13</v>
+        <v>1.113775738303957e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>5.078160114635466e-13</v>
+        <v>1.113775738303957e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.195000208572694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.34594760333977, -1.0440528138056173]</t>
+          <t>[-1.333368653775847, -1.0566317633695403]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.763034163104749e-13</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.763034163104749e-13</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="S2" t="n">
         <v>0.4295040868159807</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40436093566786896, 0.4546472379640925]</t>
+          <t>[0.4043667237207718, 0.45464144991118965]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.634934934935064</v>
       </c>
       <c r="X2" t="n">
-        <v>4.049469469469585</v>
+        <v>4.098258258258375</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.220400400400543</v>
+        <v>5.171611611611753</v>
       </c>
     </row>
   </sheetData>
